--- a/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
+++ b/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>PERIOD</t>
   </si>
@@ -443,36 +443,18 @@
     <t>UT(0-2-52)</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
-    <t>11/2,14/2023</t>
-  </si>
-  <si>
     <t>UT(0-1-9)</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
-    <t>10/12,19,24/2022</t>
-  </si>
-  <si>
     <t>UT(0-1-37)</t>
   </si>
   <si>
     <t>UT(0-2-15)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-49)</t>
   </si>
   <si>
-    <t>7/14,27/2022</t>
-  </si>
-  <si>
     <t>UT(0-3-58)</t>
   </si>
   <si>
@@ -480,6 +462,12 @@
   </si>
   <si>
     <t>UT(0-2-34)</t>
+  </si>
+  <si>
+    <t>HD(0-5-0)</t>
+  </si>
+  <si>
+    <t>10/3,4/2023</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1343,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1386,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1450,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1510,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1576,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1639,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1737,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1796,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1861,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1904,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +1979,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2165,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2231,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2289,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2355,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2411,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2486,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2529,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2595,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2651,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2749,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2812,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2878,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K209" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K208" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3268,12 +3256,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K209"/>
+  <dimension ref="A2:K208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A142" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A163" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="F152" sqref="F152"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,7 +3426,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.346999999999994</v>
+        <v>33.846999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6476,11 +6464,11 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="39">
-        <v>1</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
@@ -6491,89 +6479,87 @@
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="49">
-        <v>44670</v>
-      </c>
+      <c r="K146" s="49"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
+      <c r="A147" s="40">
+        <v>44682</v>
+      </c>
       <c r="B147" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C147" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="C147" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D147" s="39">
-        <v>0.32100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G147" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H147" s="39"/>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="49"/>
+      <c r="K147" s="49">
+        <v>44686</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C148" s="13">
-        <v>1.25</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C148" s="13"/>
       <c r="D148" s="39">
-        <v>1</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="20"/>
-      <c r="G148" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H148" s="39"/>
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="49">
-        <v>44686</v>
-      </c>
+      <c r="K148" s="49"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
+      <c r="A149" s="40">
+        <v>44713</v>
+      </c>
       <c r="B149" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C149" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="C149" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D149" s="39">
-        <v>0.32100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G149" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H149" s="39"/>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="49"/>
+      <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>139</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B150" s="20"/>
       <c r="C150" s="13">
         <v>1.25</v>
       </c>
-      <c r="D150" s="39">
-        <v>0.25</v>
-      </c>
+      <c r="D150" s="39"/>
       <c r="E150" s="9"/>
       <c r="F150" s="20"/>
       <c r="G150" s="13">
@@ -6583,38 +6569,34 @@
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="20"/>
+      <c r="K150" s="49"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C151" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D151" s="39">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H151" s="39"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39">
+        <v>1</v>
+      </c>
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="20" t="s">
-        <v>137</v>
+      <c r="K151" s="49">
+        <v>44769</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="39">
@@ -6680,11 +6662,11 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39">
-        <v>1</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="20"/>
@@ -6695,64 +6677,64 @@
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="49">
-        <v>44798</v>
-      </c>
+      <c r="K155" s="49"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
+      <c r="A156" s="40">
+        <v>44805</v>
+      </c>
       <c r="B156" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="39">
-        <v>0.10200000000000001</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C156" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H156" s="39"/>
+      <c r="G156" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H156" s="39">
+        <v>2</v>
+      </c>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="49"/>
+      <c r="K156" s="20" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C157" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D157" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39">
+        <v>1</v>
+      </c>
       <c r="E157" s="9"/>
       <c r="F157" s="20"/>
-      <c r="G157" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H157" s="39">
-        <v>2</v>
-      </c>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="20" t="s">
-        <v>118</v>
+      <c r="K157" s="49">
+        <v>44833</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="39">
-        <v>1</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="20"/>
@@ -6763,154 +6745,156 @@
       <c r="H158" s="39"/>
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="49">
-        <v>44833</v>
-      </c>
+      <c r="K158" s="49"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
+      <c r="A159" s="40">
+        <v>44835</v>
+      </c>
       <c r="B159" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C159" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="C159" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D159" s="39">
-        <v>0.28100000000000003</v>
+        <v>2</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="20"/>
-      <c r="G159" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G159" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H159" s="39"/>
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="49"/>
+      <c r="K159" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C160" s="13">
-        <v>1.25</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C160" s="13"/>
       <c r="D160" s="39">
-        <v>2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H160" s="39"/>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="K160" s="20"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
+      <c r="A161" s="40">
+        <v>44866</v>
+      </c>
       <c r="B161" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C161" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C161" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D161" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
-      <c r="G161" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G161" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20" t="s">
-        <v>132</v>
+      <c r="K161" s="49">
+        <v>44890</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="C162" s="13"/>
-      <c r="D162" s="39">
-        <v>0.20200000000000001</v>
-      </c>
+      <c r="D162" s="39"/>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
       <c r="G162" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H162" s="39"/>
+      <c r="H162" s="39">
+        <v>1</v>
+      </c>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="20"/>
+      <c r="K162" s="49">
+        <v>44867</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C163" s="13">
-        <v>1.25</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C163" s="13"/>
       <c r="D163" s="39">
-        <v>1</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="49">
-        <v>44890</v>
-      </c>
+      <c r="K163" s="49"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
+      <c r="A164" s="40">
+        <v>44896</v>
+      </c>
       <c r="B164" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C164" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C164" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D164" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G164" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="49" t="s">
-        <v>129</v>
+      <c r="K164" s="49">
+        <v>44904</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="39">
-        <v>0.14400000000000002</v>
+        <v>2</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
@@ -6921,43 +6905,37 @@
       <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="49"/>
+      <c r="K165" s="49" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C166" s="13">
-        <v>1.25</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C166" s="13"/>
       <c r="D166" s="39">
-        <v>1</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="49">
-        <v>44904</v>
-      </c>
+      <c r="K166" s="49"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
-      <c r="B167" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="A167" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B167" s="20"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="39">
-        <v>2</v>
-      </c>
+      <c r="D167" s="39"/>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
       <c r="G167" s="13" t="str">
@@ -6967,35 +6945,39 @@
       <c r="H167" s="39"/>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="49" t="s">
-        <v>126</v>
-      </c>
+      <c r="K167" s="20"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
+      <c r="A168" s="40">
+        <v>44927</v>
+      </c>
       <c r="B168" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C168" s="13"/>
-      <c r="D168" s="39">
-        <v>0.35799999999999998</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C168" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D168" s="39"/>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H168" s="39"/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H168" s="39">
+        <v>1</v>
+      </c>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="49"/>
+      <c r="K168" s="49">
+        <v>44949</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B169" s="20"/>
+      <c r="A169" s="40"/>
+      <c r="B169" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C169" s="13"/>
       <c r="D169" s="39"/>
       <c r="E169" s="9"/>
@@ -7004,27 +6986,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H169" s="39"/>
+      <c r="H169" s="39">
+        <v>2</v>
+      </c>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
+      <c r="K169" s="49" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C170" s="13"/>
       <c r="D170" s="39"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H170" s="39">
         <v>1</v>
@@ -7032,58 +7014,60 @@
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
       <c r="K170" s="49">
-        <v>44949</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="40"/>
-      <c r="B171" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C171" s="13"/>
+      <c r="A171" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D171" s="39"/>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H171" s="39">
-        <v>2</v>
-      </c>
+      <c r="G171" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="49" t="s">
-        <v>122</v>
-      </c>
+      <c r="K171" s="20"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
+      <c r="A172" s="40">
+        <v>44986</v>
+      </c>
       <c r="B172" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C172" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H172" s="39">
-        <v>1</v>
-      </c>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H172" s="39"/>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
       <c r="K172" s="49">
-        <v>44936</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B173" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C173" s="13">
         <v>1.25</v>
       </c>
@@ -7097,38 +7081,38 @@
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="20"/>
+      <c r="K173" s="49">
+        <v>45041</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C174" s="13">
-        <v>1.25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C174" s="13"/>
       <c r="D174" s="39"/>
       <c r="E174" s="9"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H174" s="39"/>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H174" s="39">
+        <v>1</v>
+      </c>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
       <c r="K174" s="49">
-        <v>45012</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C175" s="13">
         <v>1.25</v>
@@ -7140,17 +7124,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H175" s="39"/>
+      <c r="H175" s="39">
+        <v>2</v>
+      </c>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="49">
-        <v>45041</v>
+      <c r="K175" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="39"/>
@@ -7160,73 +7146,77 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H176" s="39">
-        <v>1</v>
-      </c>
+      <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
       <c r="K176" s="49">
-        <v>45029</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C177" s="13">
-        <v>1.25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C177" s="13"/>
       <c r="D177" s="39"/>
       <c r="E177" s="9"/>
       <c r="F177" s="20"/>
-      <c r="G177" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G177" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H177" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="20" t="s">
-        <v>125</v>
+      <c r="K177" s="49">
+        <v>45056</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
+      <c r="A178" s="40">
+        <v>45078</v>
+      </c>
       <c r="B178" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="C178" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D178" s="39">
+        <v>1</v>
+      </c>
       <c r="E178" s="9"/>
       <c r="F178" s="20"/>
-      <c r="G178" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G178" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H178" s="39"/>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
       <c r="K178" s="49">
-        <v>45082</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="40"/>
+      <c r="A179" s="40">
+        <v>45108</v>
+      </c>
       <c r="B179" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C179" s="13"/>
+      <c r="C179" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D179" s="39"/>
       <c r="E179" s="9"/>
       <c r="F179" s="20"/>
-      <c r="G179" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G179" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H179" s="39">
         <v>1</v>
@@ -7234,38 +7224,40 @@
       <c r="I179" s="9"/>
       <c r="J179" s="11"/>
       <c r="K179" s="49">
-        <v>45056</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B180" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C180" s="13"/>
+      <c r="C180" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D180" s="39">
         <v>1</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="20"/>
-      <c r="G180" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G180" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H180" s="39"/>
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
       <c r="K180" s="49">
-        <v>45093</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B181" s="20"/>
+      <c r="A181" s="40"/>
+      <c r="B181" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C181" s="13"/>
       <c r="D181" s="39"/>
       <c r="E181" s="9"/>
@@ -7274,36 +7266,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H181" s="39"/>
+      <c r="H181" s="39">
+        <v>1</v>
+      </c>
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
-      <c r="K181" s="20"/>
+      <c r="K181" s="49">
+        <v>45145</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B182" s="20"/>
-      <c r="C182" s="13"/>
+        <v>45170</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C182" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D182" s="39"/>
       <c r="E182" s="9"/>
       <c r="F182" s="20"/>
-      <c r="G182" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H182" s="39"/>
+      <c r="G182" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="H182" s="39">
+        <v>1</v>
+      </c>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="20"/>
+      <c r="K182" s="49">
+        <v>45189</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B183" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="39"/>
+      <c r="D183" s="39">
+        <v>2</v>
+      </c>
       <c r="E183" s="9"/>
       <c r="F183" s="20"/>
       <c r="G183" s="13" t="str">
@@ -7313,11 +7320,13 @@
       <c r="H183" s="39"/>
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
-      <c r="K183" s="20"/>
+      <c r="K183" s="20" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7335,7 +7344,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7353,7 +7362,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7371,7 +7380,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7389,7 +7398,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -7407,7 +7416,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -7425,7 +7434,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7443,7 +7452,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7461,7 +7470,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7479,7 +7488,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7497,7 +7506,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7515,7 +7524,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7533,7 +7542,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7551,7 +7560,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7569,7 +7578,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7587,7 +7596,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7605,7 +7614,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7622,9 +7631,7 @@
       <c r="K200" s="20"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="40">
-        <v>45717</v>
-      </c>
+      <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
       <c r="D201" s="39"/>
@@ -7736,36 +7743,20 @@
       <c r="K207" s="20"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="39"/>
+      <c r="A208" s="41"/>
+      <c r="B208" s="15"/>
+      <c r="C208" s="42"/>
+      <c r="D208" s="43"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H208" s="39"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H208" s="43"/>
       <c r="I208" s="9"/>
-      <c r="J208" s="11"/>
-      <c r="K208" s="20"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="41"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="42"/>
-      <c r="D209" s="43"/>
-      <c r="E209" s="9"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H209" s="43"/>
-      <c r="I209" s="9"/>
-      <c r="J209" s="12"/>
-      <c r="K209" s="15"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7813,7 +7804,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
+++ b/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="140">
   <si>
     <t>PERIOD</t>
   </si>
@@ -468,6 +468,15 @@
   </si>
   <si>
     <t>10/3,4/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-33)</t>
+  </si>
+  <si>
+    <t>UT(0-1-7)</t>
   </si>
 </sst>
 </file>
@@ -2878,7 +2887,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K209" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K212" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3256,12 +3265,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K209"/>
+  <dimension ref="A2:K212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A163" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A172" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="K185" sqref="K185"/>
+      <selection pane="bottomLeft" activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,7 +3435,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>34.096999999999994</v>
+        <v>36.387999999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3436,7 +3445,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.75</v>
+        <v>49.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7349,15 +7358,13 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
@@ -7368,35 +7375,43 @@
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="49">
-        <v>45254</v>
-      </c>
+      <c r="K185" s="49"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B186" s="20"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C186" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D186" s="39">
+        <v>1</v>
+      </c>
       <c r="E186" s="9"/>
       <c r="F186" s="20"/>
-      <c r="G186" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G186" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="20"/>
+      <c r="K186" s="49">
+        <v>45254</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B187" s="20"/>
+      <c r="A187" s="40"/>
+      <c r="B187" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="39"/>
+      <c r="D187" s="39">
+        <v>6.9000000000000006E-2</v>
+      </c>
       <c r="E187" s="9"/>
       <c r="F187" s="20"/>
       <c r="G187" s="13" t="str">
@@ -7406,20 +7421,22 @@
       <c r="H187" s="39"/>
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
-      <c r="K187" s="20"/>
+      <c r="K187" s="49"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B188" s="20"/>
-      <c r="C188" s="13"/>
+      <c r="C188" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D188" s="39"/>
       <c r="E188" s="9"/>
       <c r="F188" s="20"/>
-      <c r="G188" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G188" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H188" s="39"/>
       <c r="I188" s="9"/>
@@ -7427,8 +7444,8 @@
       <c r="K188" s="20"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="40">
-        <v>45352</v>
+      <c r="A189" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -7446,7 +7463,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7464,7 +7481,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7482,7 +7499,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7500,7 +7517,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7518,7 +7535,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7536,7 +7553,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7554,7 +7571,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7572,7 +7589,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7590,7 +7607,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7608,7 +7625,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7626,7 +7643,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7644,7 +7661,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7661,7 +7678,9 @@
       <c r="K201" s="20"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="40"/>
+      <c r="A202" s="40">
+        <v>45658</v>
+      </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
       <c r="D202" s="39"/>
@@ -7677,7 +7696,9 @@
       <c r="K202" s="20"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="40"/>
+      <c r="A203" s="40">
+        <v>45689</v>
+      </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
       <c r="D203" s="39"/>
@@ -7693,7 +7714,9 @@
       <c r="K203" s="20"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="40"/>
+      <c r="A204" s="40">
+        <v>45717</v>
+      </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
       <c r="D204" s="39"/>
@@ -7773,20 +7796,68 @@
       <c r="K208" s="20"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="41"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="42"/>
-      <c r="D209" s="43"/>
+      <c r="A209" s="40"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="39"/>
       <c r="E209" s="9"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H209" s="43"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H209" s="39"/>
       <c r="I209" s="9"/>
-      <c r="J209" s="12"/>
-      <c r="K209" s="15"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="20"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="40"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="39"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H210" s="39"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="20"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="40"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="39"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H211" s="39"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="20"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="41"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="42"/>
+      <c r="D212" s="43"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H212" s="43"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7834,7 +7905,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7904,14 +7975,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.32100000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
+++ b/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="154">
   <si>
     <t>PERIOD</t>
   </si>
@@ -477,6 +477,48 @@
   </si>
   <si>
     <t>UT(0-1-7)</t>
+  </si>
+  <si>
+    <t>UT(1-1-0)</t>
+  </si>
+  <si>
+    <t>UT(1-0-46)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>6/16/2023 (19)</t>
+  </si>
+  <si>
+    <t>UT(0-4-32)</t>
+  </si>
+  <si>
+    <t>UT(0-5-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-10)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/21,22,28/2023</t>
+  </si>
+  <si>
+    <t>UT(0-6-15)</t>
+  </si>
+  <si>
+    <t>UT(0-2-27)</t>
+  </si>
+  <si>
+    <t>UT(0-2-20)</t>
+  </si>
+  <si>
+    <t>UT(0-5-55)</t>
   </si>
 </sst>
 </file>
@@ -2887,7 +2929,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K212" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K224" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3265,12 +3307,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K212"/>
+  <dimension ref="A2:K224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A172" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A187" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="G189" sqref="G189"/>
+      <selection pane="bottomLeft" activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,7 +3477,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.387999999999991</v>
+        <v>24.736999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7027,36 +7069,38 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D171" s="39"/>
+      <c r="A171" s="40"/>
+      <c r="B171" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="39">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G171" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="20"/>
+      <c r="K171" s="49"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C172" s="13">
         <v>1.25</v>
       </c>
-      <c r="D172" s="39"/>
+      <c r="D172" s="39">
+        <v>1</v>
+      </c>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
       <c r="G172" s="13">
@@ -7067,88 +7111,84 @@
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
       <c r="K172" s="49">
-        <v>45012</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C173" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D173" s="39"/>
+        <v>151</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="39">
+        <v>0.30599999999999999</v>
+      </c>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G173" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="49">
-        <v>45041</v>
-      </c>
+      <c r="K173" s="49"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40"/>
+      <c r="A174" s="40">
+        <v>44986</v>
+      </c>
       <c r="B174" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C174" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C174" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D174" s="39"/>
       <c r="E174" s="9"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H174" s="39">
-        <v>1</v>
-      </c>
+      <c r="G174" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H174" s="39"/>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
       <c r="K174" s="49">
-        <v>45029</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C175" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D175" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="39">
+        <v>3</v>
+      </c>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H175" s="39">
-        <v>2</v>
-      </c>
+      <c r="G175" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20" t="s">
-        <v>125</v>
+      <c r="K175" s="49" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C176" s="13"/>
-      <c r="D176" s="39"/>
+      <c r="D176" s="39">
+        <v>0.78100000000000003</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
       <c r="G176" s="13" t="str">
@@ -7158,114 +7198,104 @@
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="49">
-        <v>45082</v>
-      </c>
+      <c r="K176" s="49"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
+      <c r="A177" s="40">
+        <v>45017</v>
+      </c>
       <c r="B177" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C177" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C177" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D177" s="39"/>
       <c r="E177" s="9"/>
       <c r="F177" s="20"/>
-      <c r="G177" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H177" s="39">
-        <v>1</v>
-      </c>
+      <c r="G177" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H177" s="39"/>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
       <c r="K177" s="49">
-        <v>45056</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C178" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D178" s="39">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="39"/>
       <c r="E178" s="9"/>
       <c r="F178" s="20"/>
-      <c r="G178" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H178" s="39"/>
+      <c r="G178" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H178" s="39">
+        <v>1</v>
+      </c>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
       <c r="K178" s="49">
-        <v>45093</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C179" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D179" s="39"/>
+        <v>147</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E179" s="9"/>
       <c r="F179" s="20"/>
-      <c r="G179" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H179" s="39">
-        <v>1</v>
-      </c>
+      <c r="G179" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H179" s="39"/>
       <c r="I179" s="9"/>
       <c r="J179" s="11"/>
-      <c r="K179" s="49">
-        <v>45134</v>
-      </c>
+      <c r="K179" s="49"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C180" s="13">
         <v>1.25</v>
       </c>
-      <c r="D180" s="39">
-        <v>1</v>
-      </c>
+      <c r="D180" s="39"/>
       <c r="E180" s="9"/>
       <c r="F180" s="20"/>
       <c r="G180" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H180" s="39"/>
+      <c r="H180" s="39">
+        <v>2</v>
+      </c>
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="49">
-        <v>45167</v>
+      <c r="K180" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="39"/>
@@ -7275,30 +7305,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H181" s="39">
-        <v>1</v>
-      </c>
+      <c r="H181" s="39"/>
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
       <c r="K181" s="49">
-        <v>45145</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C182" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C182" s="13"/>
       <c r="D182" s="39"/>
       <c r="E182" s="9"/>
       <c r="F182" s="20"/>
-      <c r="G182" s="13">
-        <v>1.25</v>
+      <c r="G182" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H182" s="39">
         <v>1</v>
@@ -7306,65 +7331,63 @@
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
       <c r="K182" s="49">
-        <v>45189</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C183" s="13">
-        <v>1.25</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C183" s="13"/>
       <c r="D183" s="39">
-        <v>2</v>
+        <v>0.625</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="20"/>
-      <c r="G183" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G183" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H183" s="39"/>
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
-      <c r="K183" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="K183" s="49"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="40"/>
+      <c r="A184" s="40">
+        <v>45078</v>
+      </c>
       <c r="B184" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="C184" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D184" s="39">
+        <v>1</v>
+      </c>
       <c r="E184" s="9"/>
       <c r="F184" s="20"/>
-      <c r="G184" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H184" s="39">
-        <v>1</v>
-      </c>
+      <c r="G184" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H184" s="39"/>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="49">
-        <v>45198</v>
+      <c r="K184" s="49" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
@@ -7375,81 +7398,87 @@
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="49"/>
+      <c r="K185" s="49">
+        <v>45103</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C186" s="13">
-        <v>1.25</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C186" s="13"/>
       <c r="D186" s="39">
-        <v>1</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="20"/>
-      <c r="G186" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G186" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="49">
-        <v>45254</v>
-      </c>
+      <c r="K186" s="49"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="40"/>
+      <c r="A187" s="40">
+        <v>45108</v>
+      </c>
       <c r="B187" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C187" s="13"/>
-      <c r="D187" s="39">
-        <v>6.9000000000000006E-2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C187" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D187" s="39"/>
       <c r="E187" s="9"/>
       <c r="F187" s="20"/>
-      <c r="G187" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H187" s="39"/>
+      <c r="G187" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H187" s="39">
+        <v>1</v>
+      </c>
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
-      <c r="K187" s="49"/>
+      <c r="K187" s="49">
+        <v>45134</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B188" s="20"/>
-      <c r="C188" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D188" s="39"/>
+      <c r="A188" s="40"/>
+      <c r="B188" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="39">
+        <v>1</v>
+      </c>
       <c r="E188" s="9"/>
       <c r="F188" s="20"/>
-      <c r="G188" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G188" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H188" s="39"/>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="20"/>
+      <c r="K188" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B189" s="20"/>
+      <c r="A189" s="40"/>
+      <c r="B189" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="39"/>
+      <c r="D189" s="39">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="E189" s="9"/>
       <c r="F189" s="20"/>
       <c r="G189" s="13" t="str">
@@ -7459,31 +7488,39 @@
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="20"/>
+      <c r="K189" s="49"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B190" s="20"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="39"/>
+        <v>45139</v>
+      </c>
+      <c r="B190" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C190" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D190" s="39">
+        <v>1</v>
+      </c>
       <c r="E190" s="9"/>
       <c r="F190" s="20"/>
-      <c r="G190" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G190" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H190" s="39"/>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="20"/>
+      <c r="K190" s="49">
+        <v>45167</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B191" s="20"/>
+      <c r="A191" s="40"/>
+      <c r="B191" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39"/>
       <c r="E191" s="9"/>
@@ -7492,18 +7529,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H191" s="39"/>
+      <c r="H191" s="39">
+        <v>1</v>
+      </c>
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
-      <c r="K191" s="20"/>
+      <c r="K191" s="49">
+        <v>45145</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B192" s="20"/>
+      <c r="A192" s="40"/>
+      <c r="B192" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="39"/>
+      <c r="D192" s="39">
+        <v>1.0960000000000001</v>
+      </c>
       <c r="E192" s="9"/>
       <c r="F192" s="20"/>
       <c r="G192" s="13" t="str">
@@ -7513,33 +7556,42 @@
       <c r="H192" s="39"/>
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="20"/>
+      <c r="K192" s="49"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B193" s="20"/>
-      <c r="C193" s="13"/>
+        <v>45170</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C193" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D193" s="39"/>
       <c r="E193" s="9"/>
       <c r="F193" s="20"/>
-      <c r="G193" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H193" s="39"/>
+      <c r="G193" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="H193" s="39">
+        <v>1</v>
+      </c>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="20"/>
+      <c r="K193" s="49">
+        <v>45189</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B194" s="20"/>
+      <c r="A194" s="40"/>
+      <c r="B194" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="C194" s="13"/>
-      <c r="D194" s="39"/>
+      <c r="D194" s="39">
+        <v>1.125</v>
+      </c>
       <c r="E194" s="9"/>
       <c r="F194" s="20"/>
       <c r="G194" s="13" t="str">
@@ -7549,31 +7601,39 @@
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="20"/>
+      <c r="K194" s="49"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D195" s="39">
+        <v>2</v>
+      </c>
       <c r="E195" s="9"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G195" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H195" s="39"/>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="20"/>
+      <c r="K195" s="20" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B196" s="20"/>
+      <c r="A196" s="40"/>
+      <c r="B196" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C196" s="13"/>
       <c r="D196" s="39"/>
       <c r="E196" s="9"/>
@@ -7582,18 +7642,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H196" s="39"/>
+      <c r="H196" s="39">
+        <v>1</v>
+      </c>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="20"/>
+      <c r="K196" s="49">
+        <v>45198</v>
+      </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B197" s="20"/>
+      <c r="A197" s="40"/>
+      <c r="B197" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="39"/>
+      <c r="D197" s="39">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="E197" s="9"/>
       <c r="F197" s="20"/>
       <c r="G197" s="13" t="str">
@@ -7603,33 +7669,43 @@
       <c r="H197" s="39"/>
       <c r="I197" s="9"/>
       <c r="J197" s="11"/>
-      <c r="K197" s="20"/>
+      <c r="K197" s="49"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B198" s="20"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C198" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D198" s="39">
+        <v>1</v>
+      </c>
       <c r="E198" s="9"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G198" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H198" s="39"/>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="20"/>
+      <c r="K198" s="49">
+        <v>45254</v>
+      </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B199" s="20"/>
+      <c r="A199" s="40"/>
+      <c r="B199" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C199" s="13"/>
-      <c r="D199" s="39"/>
+      <c r="D199" s="39">
+        <v>6.9000000000000006E-2</v>
+      </c>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
       <c r="G199" s="13" t="str">
@@ -7639,20 +7715,26 @@
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="20"/>
+      <c r="K199" s="49"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B200" s="20"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D200" s="39">
+        <v>0.74</v>
+      </c>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
-      <c r="G200" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G200" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
@@ -7660,8 +7742,8 @@
       <c r="K200" s="20"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="40">
-        <v>45627</v>
+      <c r="A201" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7679,7 +7761,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>45658</v>
+        <v>45292</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7697,7 +7779,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>45689</v>
+        <v>45323</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7715,7 +7797,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>45717</v>
+        <v>45352</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7732,7 +7814,9 @@
       <c r="K204" s="20"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="40"/>
+      <c r="A205" s="40">
+        <v>45383</v>
+      </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
       <c r="D205" s="39"/>
@@ -7748,7 +7832,9 @@
       <c r="K205" s="20"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="40"/>
+      <c r="A206" s="40">
+        <v>45413</v>
+      </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
       <c r="D206" s="39"/>
@@ -7764,7 +7850,9 @@
       <c r="K206" s="20"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="40"/>
+      <c r="A207" s="40">
+        <v>45444</v>
+      </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
       <c r="D207" s="39"/>
@@ -7780,7 +7868,9 @@
       <c r="K207" s="20"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
+      <c r="A208" s="40">
+        <v>45474</v>
+      </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
       <c r="D208" s="39"/>
@@ -7796,7 +7886,9 @@
       <c r="K208" s="20"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="40"/>
+      <c r="A209" s="40">
+        <v>45505</v>
+      </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
       <c r="D209" s="39"/>
@@ -7812,7 +7904,9 @@
       <c r="K209" s="20"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
+      <c r="A210" s="40">
+        <v>45536</v>
+      </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
       <c r="D210" s="39"/>
@@ -7828,7 +7922,9 @@
       <c r="K210" s="20"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="40"/>
+      <c r="A211" s="40">
+        <v>45566</v>
+      </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
       <c r="D211" s="39"/>
@@ -7844,20 +7940,222 @@
       <c r="K211" s="20"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="41"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="42"/>
-      <c r="D212" s="43"/>
+      <c r="A212" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B212" s="20"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="39"/>
       <c r="E212" s="9"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H212" s="43"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H212" s="39"/>
       <c r="I212" s="9"/>
-      <c r="J212" s="12"/>
-      <c r="K212" s="15"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="20"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B213" s="20"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="39"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H213" s="39"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="20"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B214" s="20"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="39"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H214" s="39"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="20"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="39"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H215" s="39"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="20"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B216" s="20"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H216" s="39"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="20"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="40"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="39"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H217" s="39"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="20"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="40"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="39"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H218" s="39"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="20"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="40"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="39"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H219" s="39"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="20"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="40"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="39"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H220" s="39"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="20"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="40"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="39"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H221" s="39"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="20"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="40"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="39"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H222" s="39"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="20"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="40"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="39"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H223" s="39"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="20"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="41"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="42"/>
+      <c r="D224" s="43"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="15"/>
+      <c r="G224" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H224" s="43"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="12"/>
+      <c r="K224" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7971,18 +8269,16 @@
       <c r="B3" s="11">
         <v>13.25</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.14000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
+++ b/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="156">
   <si>
     <t>PERIOD</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>UT(0-5-55)</t>
+  </si>
+  <si>
+    <t>MOURNING 01/24-31/2024</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1400,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1443,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1507,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1567,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1633,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1696,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1794,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1853,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1918,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1961,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2036,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2222,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2288,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2346,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2412,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2468,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2543,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2586,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2652,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2708,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2806,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2869,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3318,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A187" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="F202" sqref="F202"/>
+      <selection pane="bottomLeft" activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3483,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.736999999999995</v>
+        <v>19.986999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3487,7 +3493,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.25</v>
+        <v>50.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7764,13 +7770,15 @@
         <v>45292</v>
       </c>
       <c r="B202" s="20"/>
-      <c r="C202" s="13"/>
+      <c r="C202" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D202" s="39"/>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G202" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H202" s="39"/>
       <c r="I202" s="9"/>
@@ -7781,9 +7789,13 @@
       <c r="A203" s="40">
         <v>45323</v>
       </c>
-      <c r="B203" s="20"/>
+      <c r="B203" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="C203" s="13"/>
-      <c r="D203" s="39"/>
+      <c r="D203" s="39">
+        <v>6</v>
+      </c>
       <c r="E203" s="9"/>
       <c r="F203" s="20"/>
       <c r="G203" s="13" t="str">
@@ -7793,7 +7805,9 @@
       <c r="H203" s="39"/>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="20"/>
+      <c r="K203" s="20" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
